--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H2">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I2">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J2">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.9164455</v>
+        <v>2.401912</v>
       </c>
       <c r="N2">
-        <v>13.832891</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O2">
-        <v>0.5891123781422892</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P2">
-        <v>0.5084626450322738</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q2">
-        <v>142.2284538462413</v>
+        <v>50.906492822448</v>
       </c>
       <c r="R2">
-        <v>568.9138153849651</v>
+        <v>203.625971289792</v>
       </c>
       <c r="S2">
-        <v>0.01350540087782482</v>
+        <v>0.0122505124824991</v>
       </c>
       <c r="T2">
-        <v>0.008171982601399742</v>
+        <v>0.007706273421706901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H3">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I3">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J3">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.802176</v>
       </c>
       <c r="O3">
-        <v>0.07955900504737815</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P3">
-        <v>0.1030010155365178</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q3">
-        <v>19.20780261504</v>
+        <v>19.796583226368</v>
       </c>
       <c r="R3">
-        <v>115.24681569024</v>
+        <v>118.779499358208</v>
       </c>
       <c r="S3">
-        <v>0.001823890137895235</v>
+        <v>0.004763995248529699</v>
       </c>
       <c r="T3">
-        <v>0.001655426441085954</v>
+        <v>0.004495238466635113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H4">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I4">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J4">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03577300000000001</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N4">
-        <v>0.107319</v>
+        <v>0.111226</v>
       </c>
       <c r="O4">
-        <v>0.003046986649903353</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P4">
-        <v>0.003944779338044275</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q4">
-        <v>0.7356290856975002</v>
+        <v>0.7857803242679999</v>
       </c>
       <c r="R4">
-        <v>4.413774514185001</v>
+        <v>4.714681945608</v>
       </c>
       <c r="S4">
-        <v>6.985216692626687E-05</v>
+        <v>0.0001890959509727313</v>
       </c>
       <c r="T4">
-        <v>6.340026830252758E-05</v>
+        <v>0.0001784282620684629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H5">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I5">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J5">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.099586</v>
+        <v>1.5860085</v>
       </c>
       <c r="N5">
-        <v>2.199172</v>
+        <v>3.172017</v>
       </c>
       <c r="O5">
-        <v>0.09365789456910596</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P5">
-        <v>0.08083608928899359</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q5">
-        <v>22.61167483369501</v>
+        <v>33.61410839430899</v>
       </c>
       <c r="R5">
-        <v>90.44669933478002</v>
+        <v>134.456433577236</v>
       </c>
       <c r="S5">
-        <v>0.00214710717082118</v>
+        <v>0.008089146033076845</v>
       </c>
       <c r="T5">
-        <v>0.001299193011893571</v>
+        <v>0.005088535779059027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H6">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I6">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J6">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.689952</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N6">
-        <v>8.069856</v>
+        <v>0.06775</v>
       </c>
       <c r="O6">
-        <v>0.2291182688866134</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P6">
-        <v>0.2966278218189939</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q6">
-        <v>55.31565511224001</v>
+        <v>0.4786346444999999</v>
       </c>
       <c r="R6">
-        <v>331.89393067344</v>
+        <v>2.871807867</v>
       </c>
       <c r="S6">
-        <v>0.00525253616212354</v>
+        <v>0.0001151821577545047</v>
       </c>
       <c r="T6">
-        <v>0.004767385416960295</v>
+        <v>0.0001086842532783554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.5638075</v>
+        <v>742.921651</v>
       </c>
       <c r="H7">
-        <v>41.12761500000001</v>
+        <v>2228.764953</v>
       </c>
       <c r="I7">
-        <v>0.02292499933614166</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J7">
-        <v>0.01607194290719437</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.06463666666666668</v>
+        <v>2.401912</v>
       </c>
       <c r="N7">
-        <v>0.19391</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O7">
-        <v>0.005505466704709875</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P7">
-        <v>0.007127648985176579</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q7">
-        <v>1.329175970775</v>
+        <v>1784.432428596712</v>
       </c>
       <c r="R7">
-        <v>7.975055824650002</v>
+        <v>10706.59457158027</v>
       </c>
       <c r="S7">
-        <v>0.0001262128205506239</v>
+        <v>0.4294189312342612</v>
       </c>
       <c r="T7">
-        <v>0.0001145551675522799</v>
+        <v>0.4051936236882994</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>2228.764953</v>
       </c>
       <c r="I8">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J8">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.9164455</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N8">
-        <v>13.832891</v>
+        <v>2.802176</v>
       </c>
       <c r="O8">
-        <v>0.5891123781422892</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P8">
-        <v>0.5084626450322738</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q8">
-        <v>5138.37710991152</v>
+        <v>693.9324067708587</v>
       </c>
       <c r="R8">
-        <v>30830.26265946912</v>
+        <v>6245.391660937728</v>
       </c>
       <c r="S8">
-        <v>0.4879181405277433</v>
+        <v>0.1669929932279363</v>
       </c>
       <c r="T8">
-        <v>0.4428515589470848</v>
+        <v>0.2363583361198046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>2228.764953</v>
       </c>
       <c r="I9">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J9">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.9340586666666667</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N9">
-        <v>2.802176</v>
+        <v>0.111226</v>
       </c>
       <c r="O9">
-        <v>0.07955900504737815</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P9">
-        <v>0.1030010155365178</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q9">
-        <v>693.9324067708587</v>
+        <v>27.54406785137533</v>
       </c>
       <c r="R9">
-        <v>6245.391660937728</v>
+        <v>247.896610662378</v>
       </c>
       <c r="S9">
-        <v>0.06589283003586499</v>
+        <v>0.00662840687550334</v>
       </c>
       <c r="T9">
-        <v>0.08970995362025962</v>
+        <v>0.009381706321537757</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>2228.764953</v>
       </c>
       <c r="I10">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J10">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03577300000000001</v>
+        <v>1.5860085</v>
       </c>
       <c r="N10">
-        <v>0.107319</v>
+        <v>3.172017</v>
       </c>
       <c r="O10">
-        <v>0.003046986649903353</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P10">
-        <v>0.003944779338044275</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q10">
-        <v>26.57653622122301</v>
+        <v>1178.280053320033</v>
       </c>
       <c r="R10">
-        <v>239.188825991007</v>
+        <v>7069.6803199202</v>
       </c>
       <c r="S10">
-        <v>0.002523593316986155</v>
+        <v>0.2835499697734362</v>
       </c>
       <c r="T10">
-        <v>0.003435752255594453</v>
+        <v>0.2675537369043678</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>2228.764953</v>
       </c>
       <c r="I11">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J11">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.099586</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N11">
-        <v>2.199172</v>
+        <v>0.06775</v>
       </c>
       <c r="O11">
-        <v>0.09365789456910596</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P11">
-        <v>0.08083608928899359</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q11">
-        <v>816.9062465364862</v>
+        <v>16.77764728508333</v>
       </c>
       <c r="R11">
-        <v>4901.437479218916</v>
+        <v>150.99882556575</v>
       </c>
       <c r="S11">
-        <v>0.0775698957608123</v>
+        <v>0.004037496321142101</v>
       </c>
       <c r="T11">
-        <v>0.07040514875688521</v>
+        <v>0.005714586547067978</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,117 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>742.921651</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H12">
-        <v>2228.764953</v>
+        <v>0.176689</v>
       </c>
       <c r="I12">
-        <v>0.828225918569811</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J12">
-        <v>0.8709618361816444</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.689952</v>
+        <v>2.401912</v>
       </c>
       <c r="N12">
-        <v>8.069856</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O12">
-        <v>0.2291182688866134</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P12">
-        <v>0.2966278218189939</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q12">
-        <v>1998.423580950752</v>
+        <v>0.1414638097893333</v>
       </c>
       <c r="R12">
-        <v>17985.81222855677</v>
+        <v>0.848782858736</v>
       </c>
       <c r="S12">
-        <v>0.1897616887097403</v>
+        <v>3.404289063264464E-05</v>
       </c>
       <c r="T12">
-        <v>0.2583515123540326</v>
+        <v>3.212238961290861E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.05889633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.176689</v>
+      </c>
+      <c r="I13">
+        <v>7.060598054034096E-05</v>
+      </c>
+      <c r="J13">
+        <v>7.326762973246153E-05</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>742.921651</v>
-      </c>
-      <c r="H13">
-        <v>2228.764953</v>
-      </c>
-      <c r="I13">
-        <v>0.828225918569811</v>
-      </c>
-      <c r="J13">
-        <v>0.8709618361816444</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06463666666666668</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N13">
-        <v>0.19391</v>
+        <v>2.802176</v>
       </c>
       <c r="O13">
-        <v>0.005505466704709875</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P13">
-        <v>0.007127648985176579</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q13">
-        <v>48.01997911513667</v>
+        <v>0.05501263058488889</v>
       </c>
       <c r="R13">
-        <v>432.17981203623</v>
+        <v>0.495113675264</v>
       </c>
       <c r="S13">
-        <v>0.004559770218663847</v>
+        <v>1.323864364464943E-05</v>
       </c>
       <c r="T13">
-        <v>0.006207910247787627</v>
+        <v>1.873769506042307E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H14">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I14">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J14">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.9164455</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N14">
-        <v>13.832891</v>
+        <v>0.111226</v>
       </c>
       <c r="O14">
-        <v>0.5891123781422892</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P14">
-        <v>0.5084626450322738</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q14">
-        <v>4.3670506051455</v>
+        <v>0.002183601190444444</v>
       </c>
       <c r="R14">
-        <v>26.202303630873</v>
+        <v>0.019652410714</v>
       </c>
       <c r="S14">
-        <v>0.000414676300566394</v>
+        <v>5.254778350895081E-07</v>
       </c>
       <c r="T14">
-        <v>0.0003763747049158866</v>
+        <v>7.437501680089388E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H15">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I15">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J15">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9340586666666667</v>
+        <v>1.5860085</v>
       </c>
       <c r="N15">
-        <v>2.802176</v>
+        <v>3.172017</v>
       </c>
       <c r="O15">
-        <v>0.07955900504737815</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P15">
-        <v>0.1030010155365178</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q15">
-        <v>0.589765576192</v>
+        <v>0.09341008528549999</v>
       </c>
       <c r="R15">
-        <v>5.307890185728</v>
+        <v>0.5604605117129999</v>
       </c>
       <c r="S15">
-        <v>5.600159683255104E-05</v>
+        <v>2.24788892798507E-05</v>
       </c>
       <c r="T15">
-        <v>7.624351013265264E-05</v>
+        <v>2.121076166253582E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H16">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I16">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J16">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.03577300000000001</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N16">
-        <v>0.107319</v>
+        <v>0.06775</v>
       </c>
       <c r="O16">
-        <v>0.003046986649903353</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P16">
-        <v>0.003944779338044275</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q16">
-        <v>0.022587107973</v>
+        <v>0.001330075527777778</v>
       </c>
       <c r="R16">
-        <v>0.203283971757</v>
+        <v>0.01197067975</v>
       </c>
       <c r="S16">
-        <v>2.144774407629123E-06</v>
+        <v>3.200791481066853E-07</v>
       </c>
       <c r="T16">
-        <v>2.920008330642383E-06</v>
+        <v>4.530332285850934E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.631401</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H17">
-        <v>1.894203</v>
+        <v>139.429615</v>
       </c>
       <c r="I17">
-        <v>0.0007039001656594569</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J17">
-        <v>0.0007402209554489433</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.099586</v>
+        <v>2.401912</v>
       </c>
       <c r="N17">
-        <v>2.199172</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O17">
-        <v>0.09365789456910596</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P17">
-        <v>0.08083608928899359</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q17">
-        <v>0.6942796999860001</v>
+        <v>167.44883271194</v>
       </c>
       <c r="R17">
-        <v>4.165678199916</v>
+        <v>669.7953308477602</v>
       </c>
       <c r="S17">
-        <v>6.592580750250963E-05</v>
+        <v>0.04029611748097008</v>
       </c>
       <c r="T17">
-        <v>5.983656724825493E-05</v>
+        <v>0.02534856395478976</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.631401</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H18">
-        <v>1.894203</v>
+        <v>139.429615</v>
       </c>
       <c r="I18">
-        <v>0.0007039001656594569</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J18">
-        <v>0.0007402209554489433</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.689952</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N18">
-        <v>8.069856</v>
+        <v>2.802176</v>
       </c>
       <c r="O18">
-        <v>0.2291182688866134</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P18">
-        <v>0.2966278218189939</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q18">
-        <v>1.698438382752</v>
+        <v>65.11772014037334</v>
       </c>
       <c r="R18">
-        <v>15.285945444768</v>
+        <v>390.7063208422401</v>
       </c>
       <c r="S18">
-        <v>0.0001612763874248952</v>
+        <v>0.01567040664525523</v>
       </c>
       <c r="T18">
-        <v>0.0002195701296795946</v>
+        <v>0.01478637384479051</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.631401</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H19">
-        <v>1.894203</v>
+        <v>139.429615</v>
       </c>
       <c r="I19">
-        <v>0.0007039001656594569</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J19">
-        <v>0.0007402209554489433</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.06463666666666668</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N19">
-        <v>0.19391</v>
+        <v>0.111226</v>
       </c>
       <c r="O19">
-        <v>0.005505466704709875</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P19">
-        <v>0.007127648985176579</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q19">
-        <v>0.04081165597000001</v>
+        <v>2.584699726331667</v>
       </c>
       <c r="R19">
-        <v>0.36730490373</v>
+        <v>15.50819835799</v>
       </c>
       <c r="S19">
-        <v>3.875298925477906E-06</v>
+        <v>0.0006220011339491731</v>
       </c>
       <c r="T19">
-        <v>5.276035141912098E-06</v>
+        <v>0.0005869114635414297</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H20">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I20">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J20">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.9164455</v>
+        <v>1.5860085</v>
       </c>
       <c r="N20">
-        <v>13.832891</v>
+        <v>3.172017</v>
       </c>
       <c r="O20">
-        <v>0.5891123781422892</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P20">
-        <v>0.5084626450322738</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q20">
-        <v>771.0270952985483</v>
+        <v>110.5682772708638</v>
       </c>
       <c r="R20">
-        <v>3084.108381194193</v>
+        <v>442.273109083455</v>
       </c>
       <c r="S20">
-        <v>0.0732134093289725</v>
+        <v>0.02660796267382699</v>
       </c>
       <c r="T20">
-        <v>0.04430069959699581</v>
+        <v>0.01673793123773484</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H21">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I21">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J21">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.9340586666666667</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N21">
-        <v>2.802176</v>
+        <v>0.06775</v>
       </c>
       <c r="O21">
-        <v>0.07955900504737815</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P21">
-        <v>0.1030010155365178</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q21">
-        <v>104.126395646208</v>
+        <v>1.574392736041667</v>
       </c>
       <c r="R21">
-        <v>624.758373877248</v>
+        <v>9.446356416250001</v>
       </c>
       <c r="S21">
-        <v>0.009887393676410946</v>
+        <v>0.000378873436292382</v>
       </c>
       <c r="T21">
-        <v>0.008974144102914665</v>
+        <v>0.0003574996102973393</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>111.4773615</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H22">
-        <v>222.954723</v>
+        <v>0.341699</v>
       </c>
       <c r="I22">
-        <v>0.1242774927932157</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J22">
-        <v>0.08712675361664748</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.03577300000000001</v>
+        <v>2.401912</v>
       </c>
       <c r="N22">
-        <v>0.107319</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O22">
-        <v>0.003046986649903353</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P22">
-        <v>0.003944779338044275</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q22">
-        <v>3.987879652939501</v>
+        <v>0.2735769761626667</v>
       </c>
       <c r="R22">
-        <v>23.927277917637</v>
+        <v>1.641461856976</v>
       </c>
       <c r="S22">
-        <v>0.0003786718614243883</v>
+        <v>6.58355737271932E-05</v>
       </c>
       <c r="T22">
-        <v>0.0003436958174578253</v>
+        <v>6.212151525189037E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>111.4773615</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H23">
-        <v>222.954723</v>
+        <v>0.341699</v>
       </c>
       <c r="I23">
-        <v>0.1242774927932157</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J23">
-        <v>0.08712675361664748</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.099586</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N23">
-        <v>2.199172</v>
+        <v>2.802176</v>
       </c>
       <c r="O23">
-        <v>0.09365789456910596</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P23">
-        <v>0.08083608928899359</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q23">
-        <v>122.578946022339</v>
+        <v>0.1063889707804444</v>
       </c>
       <c r="R23">
-        <v>490.3157840893561</v>
+        <v>0.957500737024</v>
       </c>
       <c r="S23">
-        <v>0.01163956831733982</v>
+        <v>2.560222365134822E-05</v>
       </c>
       <c r="T23">
-        <v>0.007042986034815461</v>
+        <v>3.623684363175694E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>111.4773615</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H24">
-        <v>222.954723</v>
+        <v>0.341699</v>
       </c>
       <c r="I24">
-        <v>0.1242774927932157</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J24">
-        <v>0.08712675361664748</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>2.689952</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N24">
-        <v>8.069856</v>
+        <v>0.111226</v>
       </c>
       <c r="O24">
-        <v>0.2291182688866134</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P24">
-        <v>0.2966278218189939</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q24">
-        <v>299.868751521648</v>
+        <v>0.004222868108222222</v>
       </c>
       <c r="R24">
-        <v>1799.212509129888</v>
+        <v>0.038005812974</v>
       </c>
       <c r="S24">
-        <v>0.02847424401035015</v>
+        <v>1.016222010268041E-06</v>
       </c>
       <c r="T24">
-        <v>0.02584421914746629</v>
+        <v>1.4383390514321E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>111.4773615</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H25">
-        <v>222.954723</v>
+        <v>0.341699</v>
       </c>
       <c r="I25">
-        <v>0.1242774927932157</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J25">
-        <v>0.08712675361664748</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.06463666666666668</v>
+        <v>1.5860085</v>
       </c>
       <c r="N25">
-        <v>0.19391</v>
+        <v>3.172017</v>
       </c>
       <c r="O25">
-        <v>0.005505466704709875</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P25">
-        <v>0.007127648985176579</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q25">
-        <v>7.205525056155001</v>
+        <v>0.1806458394805</v>
       </c>
       <c r="R25">
-        <v>43.23315033693001</v>
+        <v>1.083875036883</v>
       </c>
       <c r="S25">
-        <v>0.0006842055987178703</v>
+        <v>4.347194215845755E-05</v>
       </c>
       <c r="T25">
-        <v>0.0006210089169974273</v>
+        <v>4.10195091337142E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H26">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I26">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J26">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>6.9164455</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N26">
-        <v>13.832891</v>
+        <v>0.06775</v>
       </c>
       <c r="O26">
-        <v>0.5891123781422892</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P26">
-        <v>0.5084626450322738</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q26">
-        <v>140.6563999629143</v>
+        <v>0.002572234138888889</v>
       </c>
       <c r="R26">
-        <v>843.938399777486</v>
+        <v>0.02315010725</v>
       </c>
       <c r="S26">
-        <v>0.01335612541766392</v>
+        <v>6.190013233925501E-07</v>
       </c>
       <c r="T26">
-        <v>0.01212248627670963</v>
+        <v>8.761213271584413E-07</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>20.33651533333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H27">
-        <v>61.009546</v>
+        <v>0.454844</v>
       </c>
       <c r="I27">
-        <v>0.02267160886990901</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J27">
-        <v>0.02384144911164551</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.9340586666666667</v>
+        <v>2.401912</v>
       </c>
       <c r="N27">
-        <v>2.802176</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O27">
-        <v>0.07955900504737815</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P27">
-        <v>0.1030010155365178</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q27">
-        <v>18.99549839689956</v>
+        <v>0.3641650872426667</v>
       </c>
       <c r="R27">
-        <v>170.959485572096</v>
+        <v>2.184990523456</v>
       </c>
       <c r="S27">
-        <v>0.001803730644513274</v>
+        <v>8.763536239898702E-05</v>
       </c>
       <c r="T27">
-        <v>0.002455693470361697</v>
+        <v>8.269148719554585E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>20.33651533333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H28">
-        <v>61.009546</v>
+        <v>0.454844</v>
       </c>
       <c r="I28">
-        <v>0.02267160886990901</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J28">
-        <v>0.02384144911164551</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.03577300000000001</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N28">
-        <v>0.107319</v>
+        <v>2.802176</v>
       </c>
       <c r="O28">
-        <v>0.003046986649903353</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P28">
-        <v>0.003944779338044275</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q28">
-        <v>0.7274981630193335</v>
+        <v>0.1416169933937778</v>
       </c>
       <c r="R28">
-        <v>6.547483467174001</v>
+        <v>1.274552940544</v>
       </c>
       <c r="S28">
-        <v>6.90800895584432E-05</v>
+        <v>3.407975386077756E-05</v>
       </c>
       <c r="T28">
-        <v>9.404925584465324E-05</v>
+        <v>4.823575984958356E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>20.33651533333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H29">
-        <v>61.009546</v>
+        <v>0.454844</v>
       </c>
       <c r="I29">
-        <v>0.02267160886990901</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J29">
-        <v>0.02384144911164551</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>1.099586</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N29">
-        <v>2.199172</v>
+        <v>0.111226</v>
       </c>
       <c r="O29">
-        <v>0.09365789456910596</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P29">
-        <v>0.08083608928899359</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q29">
-        <v>22.36174754931867</v>
+        <v>0.005621164304888888</v>
       </c>
       <c r="R29">
-        <v>134.170485295912</v>
+        <v>0.050590478744</v>
       </c>
       <c r="S29">
-        <v>0.002123375153249946</v>
+        <v>1.352718281406609E-06</v>
       </c>
       <c r="T29">
-        <v>0.001927249509167973</v>
+        <v>1.914608727299706E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>20.33651533333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H30">
-        <v>61.009546</v>
+        <v>0.454844</v>
       </c>
       <c r="I30">
-        <v>0.02267160886990901</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J30">
-        <v>0.02384144911164551</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.689952</v>
+        <v>1.5860085</v>
       </c>
       <c r="N30">
-        <v>8.069856</v>
+        <v>3.172017</v>
       </c>
       <c r="O30">
-        <v>0.2291182688866134</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P30">
-        <v>0.2966278218189939</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q30">
-        <v>54.70425009393067</v>
+        <v>0.240462150058</v>
       </c>
       <c r="R30">
-        <v>492.338250845376</v>
+        <v>1.442772900348</v>
       </c>
       <c r="S30">
-        <v>0.005194479777147942</v>
+        <v>5.786657865291226E-05</v>
       </c>
       <c r="T30">
-        <v>0.007072037118995796</v>
+        <v>5.460208432689326E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>20.33651533333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H31">
-        <v>61.009546</v>
+        <v>0.454844</v>
       </c>
       <c r="I31">
-        <v>0.02267160886990901</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J31">
-        <v>0.02384144911164551</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.06463666666666668</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N31">
-        <v>0.19391</v>
+        <v>0.06775</v>
       </c>
       <c r="O31">
-        <v>0.005505466704709875</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P31">
-        <v>0.007127648985176579</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q31">
-        <v>1.314484562762223</v>
+        <v>0.003423964555555555</v>
       </c>
       <c r="R31">
-        <v>11.83036106486</v>
+        <v>0.030815681</v>
       </c>
       <c r="S31">
-        <v>0.0001248177877754892</v>
+        <v>8.239679891868604E-07</v>
       </c>
       <c r="T31">
-        <v>0.0001699334805657592</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1.072888333333333</v>
-      </c>
-      <c r="H32">
-        <v>3.218665</v>
-      </c>
-      <c r="I32">
-        <v>0.001196080265263172</v>
-      </c>
-      <c r="J32">
-        <v>0.001257797227419698</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>6.9164455</v>
-      </c>
-      <c r="N32">
-        <v>13.832891</v>
-      </c>
-      <c r="O32">
-        <v>0.5891123781422892</v>
-      </c>
-      <c r="P32">
-        <v>0.5084626450322738</v>
-      </c>
-      <c r="Q32">
-        <v>7.420573685085834</v>
-      </c>
-      <c r="R32">
-        <v>44.523442110515</v>
-      </c>
-      <c r="S32">
-        <v>0.0007046256895182474</v>
-      </c>
-      <c r="T32">
-        <v>0.0006395429051680798</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1.072888333333333</v>
-      </c>
-      <c r="H33">
-        <v>3.218665</v>
-      </c>
-      <c r="I33">
-        <v>0.001196080265263172</v>
-      </c>
-      <c r="J33">
-        <v>0.001257797227419698</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.9340586666666667</v>
-      </c>
-      <c r="N33">
-        <v>2.802176</v>
-      </c>
-      <c r="O33">
-        <v>0.07955900504737815</v>
-      </c>
-      <c r="P33">
-        <v>0.1030010155365178</v>
-      </c>
-      <c r="Q33">
-        <v>1.002140646115556</v>
-      </c>
-      <c r="R33">
-        <v>9.019265815040001</v>
-      </c>
-      <c r="S33">
-        <v>9.515895586114208E-05</v>
-      </c>
-      <c r="T33">
-        <v>0.0001295543917632453</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1.072888333333333</v>
-      </c>
-      <c r="H34">
-        <v>3.218665</v>
-      </c>
-      <c r="I34">
-        <v>0.001196080265263172</v>
-      </c>
-      <c r="J34">
-        <v>0.001257797227419698</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.03577300000000001</v>
-      </c>
-      <c r="N34">
-        <v>0.107319</v>
-      </c>
-      <c r="O34">
-        <v>0.003046986649903353</v>
-      </c>
-      <c r="P34">
-        <v>0.003944779338044275</v>
-      </c>
-      <c r="Q34">
-        <v>0.03838043434833335</v>
-      </c>
-      <c r="R34">
-        <v>0.345423909135</v>
-      </c>
-      <c r="S34">
-        <v>3.644440600469746E-06</v>
-      </c>
-      <c r="T34">
-        <v>4.961732514174598E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1.072888333333333</v>
-      </c>
-      <c r="H35">
-        <v>3.218665</v>
-      </c>
-      <c r="I35">
-        <v>0.001196080265263172</v>
-      </c>
-      <c r="J35">
-        <v>0.001257797227419698</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.099586</v>
-      </c>
-      <c r="N35">
-        <v>2.199172</v>
-      </c>
-      <c r="O35">
-        <v>0.09365789456910596</v>
-      </c>
-      <c r="P35">
-        <v>0.08083608928899359</v>
-      </c>
-      <c r="Q35">
-        <v>1.179732990896667</v>
-      </c>
-      <c r="R35">
-        <v>7.078397945380002</v>
-      </c>
-      <c r="S35">
-        <v>0.0001120223593802064</v>
-      </c>
-      <c r="T35">
-        <v>0.0001016754089831473</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1.072888333333333</v>
-      </c>
-      <c r="H36">
-        <v>3.218665</v>
-      </c>
-      <c r="I36">
-        <v>0.001196080265263172</v>
-      </c>
-      <c r="J36">
-        <v>0.001257797227419698</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.689952</v>
-      </c>
-      <c r="N36">
-        <v>8.069856</v>
-      </c>
-      <c r="O36">
-        <v>0.2291182688866134</v>
-      </c>
-      <c r="P36">
-        <v>0.2966278218189939</v>
-      </c>
-      <c r="Q36">
-        <v>2.886018118026667</v>
-      </c>
-      <c r="R36">
-        <v>25.97416306224</v>
-      </c>
-      <c r="S36">
-        <v>0.0002740438398265393</v>
-      </c>
-      <c r="T36">
-        <v>0.0003730976518594747</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1.072888333333333</v>
-      </c>
-      <c r="H37">
-        <v>3.218665</v>
-      </c>
-      <c r="I37">
-        <v>0.001196080265263172</v>
-      </c>
-      <c r="J37">
-        <v>0.001257797227419698</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.06463666666666668</v>
-      </c>
-      <c r="N37">
-        <v>0.19391</v>
-      </c>
-      <c r="O37">
-        <v>0.005505466704709875</v>
-      </c>
-      <c r="P37">
-        <v>0.007127648985176579</v>
-      </c>
-      <c r="Q37">
-        <v>0.06934792557222223</v>
-      </c>
-      <c r="R37">
-        <v>0.6241313301500001</v>
-      </c>
-      <c r="S37">
-        <v>6.584980076566949E-06</v>
-      </c>
-      <c r="T37">
-        <v>8.965137131575922E-06</v>
+        <v>1.166226792967068E-06</v>
       </c>
     </row>
   </sheetData>
